--- a/src/archivos/BD Socios curso - 1819-Muestra.xlsx
+++ b/src/archivos/BD Socios curso - 1819-Muestra.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="71">
   <si>
     <t>Nº TARJETA</t>
   </si>
@@ -209,6 +208,30 @@
   </si>
   <si>
     <t>dusheff@hotmail.com</t>
+  </si>
+  <si>
+    <t>López Pratomurfi</t>
+  </si>
+  <si>
+    <t>dusheff@yahoo.com</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
+    <t>Damián</t>
+  </si>
+  <si>
+    <t>Benitez Hernández</t>
+  </si>
+  <si>
+    <t>damianjava@gmail.com</t>
+  </si>
+  <si>
+    <t>Roberto</t>
   </si>
 </sst>
 </file>
@@ -218,7 +241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy\ h:mm"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -247,6 +270,14 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -265,10 +296,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -303,8 +338,10 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -721,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU4"/>
+  <dimension ref="A1:AU36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -927,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>915</v>
+        <v>100</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>47</v>
@@ -1028,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="9">
-        <v>902</v>
+        <v>101</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>47</v>
@@ -1051,7 +1088,9 @@
       <c r="K3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="10"/>
+      <c r="L3" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -1096,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
@@ -1104,12 +1143,1376 @@
       <c r="G4" t="s">
         <v>62</v>
       </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47">
+      <c r="B5">
+        <v>104</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47">
+      <c r="B6">
+        <v>105</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>106</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="5">
+        <v>1234</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>1234</v>
+      </c>
+      <c r="R7" s="5">
+        <v>12</v>
+      </c>
+      <c r="S7" s="5">
+        <v>1234567890</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V7" s="4">
+        <v>123456789</v>
+      </c>
+      <c r="W7" s="4">
+        <v>123456789</v>
+      </c>
+      <c r="X7" s="4" t="e">
+        <f>IF(BDSocios[[#This Row],[ALUMNO2]]="",1,IF(BDSocios[[#This Row],[ALUMNO3]]="",2,IF(BDSocios[[#This Row],[ALUMNO 4]]="",3,4)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="6">
+        <v>41604</v>
+      </c>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7">
+        <v>43192</v>
+      </c>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+    </row>
+    <row r="8" spans="1:47">
+      <c r="A8" s="11">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>107</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11" t="e">
+        <f>IF(BDSocios[[#This Row],[ALUMNO2]]="",1,IF(BDSocios[[#This Row],[ALUMNO3]]="",2,IF(BDSocios[[#This Row],[ALUMNO 4]]="",3,4)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
+    </row>
+    <row r="9" spans="1:47">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>108</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47">
+      <c r="B10" s="4">
+        <v>109</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47">
+      <c r="B11">
+        <v>110</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47">
+      <c r="A12" s="4">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>111</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="5">
+        <v>1234</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>1234</v>
+      </c>
+      <c r="R12" s="5">
+        <v>12</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1234567890</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V12" s="4">
+        <v>123456789</v>
+      </c>
+      <c r="W12" s="4">
+        <v>123456789</v>
+      </c>
+      <c r="X12" s="4" t="e">
+        <f>IF(BDSocios[[#This Row],[ALUMNO2]]="",1,IF(BDSocios[[#This Row],[ALUMNO3]]="",2,IF(BDSocios[[#This Row],[ALUMNO 4]]="",3,4)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="6">
+        <v>41604</v>
+      </c>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7">
+        <v>43192</v>
+      </c>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="5"/>
+      <c r="AU12" s="5"/>
+    </row>
+    <row r="13" spans="1:47">
+      <c r="A13" s="11">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4">
+        <v>112</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11" t="e">
+        <f>IF(BDSocios[[#This Row],[ALUMNO2]]="",1,IF(BDSocios[[#This Row],[ALUMNO3]]="",2,IF(BDSocios[[#This Row],[ALUMNO 4]]="",3,4)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
+    </row>
+    <row r="14" spans="1:47">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>113</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47">
+      <c r="B15">
+        <v>114</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47">
+      <c r="B16" s="4">
+        <v>115</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47">
+      <c r="A17" s="4">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>116</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="5">
+        <v>1234</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>1234</v>
+      </c>
+      <c r="R17" s="5">
+        <v>12</v>
+      </c>
+      <c r="S17" s="5">
+        <v>1234567890</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V17" s="4">
+        <v>123456789</v>
+      </c>
+      <c r="W17" s="4">
+        <v>123456789</v>
+      </c>
+      <c r="X17" s="4" t="e">
+        <f>IF(BDSocios[[#This Row],[ALUMNO2]]="",1,IF(BDSocios[[#This Row],[ALUMNO3]]="",2,IF(BDSocios[[#This Row],[ALUMNO 4]]="",3,4)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="6">
+        <v>41604</v>
+      </c>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7">
+        <v>43192</v>
+      </c>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="5"/>
+      <c r="AT17" s="5"/>
+      <c r="AU17" s="5"/>
+    </row>
+    <row r="18" spans="1:47">
+      <c r="A18" s="11">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>117</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11" t="e">
+        <f>IF(BDSocios[[#This Row],[ALUMNO2]]="",1,IF(BDSocios[[#This Row],[ALUMNO3]]="",2,IF(BDSocios[[#This Row],[ALUMNO 4]]="",3,4)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="13"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="10"/>
+    </row>
+    <row r="19" spans="1:47">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4">
+        <v>118</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47">
+      <c r="B20">
+        <v>119</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47">
+      <c r="B21">
+        <v>120</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47">
+      <c r="A22" s="4">
+        <v>0</v>
+      </c>
+      <c r="B22" s="4">
+        <v>121</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P22" s="5">
+        <v>1234</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>1234</v>
+      </c>
+      <c r="R22" s="5">
+        <v>12</v>
+      </c>
+      <c r="S22" s="5">
+        <v>1234567890</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V22" s="4">
+        <v>123456789</v>
+      </c>
+      <c r="W22" s="4">
+        <v>123456789</v>
+      </c>
+      <c r="X22" s="4" t="e">
+        <f>IF(BDSocios[[#This Row],[ALUMNO2]]="",1,IF(BDSocios[[#This Row],[ALUMNO3]]="",2,IF(BDSocios[[#This Row],[ALUMNO 4]]="",3,4)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="6">
+        <v>41604</v>
+      </c>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7">
+        <v>43192</v>
+      </c>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="5"/>
+    </row>
+    <row r="23" spans="1:47">
+      <c r="A23" s="11">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>122</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11" t="e">
+        <f>IF(BDSocios[[#This Row],[ALUMNO2]]="",1,IF(BDSocios[[#This Row],[ALUMNO3]]="",2,IF(BDSocios[[#This Row],[ALUMNO 4]]="",3,4)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="13"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="10"/>
+      <c r="AR23" s="10"/>
+      <c r="AS23" s="10"/>
+      <c r="AT23" s="10"/>
+      <c r="AU23" s="10"/>
+    </row>
+    <row r="24" spans="1:47">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>123</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" t="s">
+        <v>62</v>
+      </c>
+      <c r="L24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47">
+      <c r="B25" s="4">
+        <v>124</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" t="s">
+        <v>65</v>
+      </c>
+      <c r="L25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47">
+      <c r="B26">
+        <v>125</v>
+      </c>
+      <c r="F26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47">
+      <c r="A27" s="4">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>126</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P27" s="5">
+        <v>1234</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>1234</v>
+      </c>
+      <c r="R27" s="5">
+        <v>12</v>
+      </c>
+      <c r="S27" s="5">
+        <v>1234567890</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V27" s="4">
+        <v>123456789</v>
+      </c>
+      <c r="W27" s="4">
+        <v>123456789</v>
+      </c>
+      <c r="X27" s="4" t="e">
+        <f>IF(BDSocios[[#This Row],[ALUMNO2]]="",1,IF(BDSocios[[#This Row],[ALUMNO3]]="",2,IF(BDSocios[[#This Row],[ALUMNO 4]]="",3,4)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="6">
+        <v>41604</v>
+      </c>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7">
+        <v>43192</v>
+      </c>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="5"/>
+      <c r="AQ27" s="5"/>
+      <c r="AR27" s="5"/>
+      <c r="AS27" s="5"/>
+      <c r="AT27" s="5"/>
+      <c r="AU27" s="5"/>
+    </row>
+    <row r="28" spans="1:47">
+      <c r="A28" s="11">
+        <v>0</v>
+      </c>
+      <c r="B28" s="4">
+        <v>127</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11" t="e">
+        <f>IF(BDSocios[[#This Row],[ALUMNO2]]="",1,IF(BDSocios[[#This Row],[ALUMNO3]]="",2,IF(BDSocios[[#This Row],[ALUMNO 4]]="",3,4)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="13"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
+      <c r="AP28" s="10"/>
+      <c r="AQ28" s="10"/>
+      <c r="AR28" s="10"/>
+      <c r="AS28" s="10"/>
+      <c r="AT28" s="10"/>
+      <c r="AU28" s="10"/>
+    </row>
+    <row r="29" spans="1:47">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>128</v>
+      </c>
+      <c r="F29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" t="s">
+        <v>62</v>
+      </c>
+      <c r="L29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47">
+      <c r="B30">
+        <v>129</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" t="s">
+        <v>65</v>
+      </c>
+      <c r="L30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47">
+      <c r="B31" s="4">
+        <v>130</v>
+      </c>
+      <c r="F31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47">
+      <c r="A32" s="4">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>131</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P32" s="5">
+        <v>1234</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>1234</v>
+      </c>
+      <c r="R32" s="5">
+        <v>12</v>
+      </c>
+      <c r="S32" s="5">
+        <v>1234567890</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V32" s="4">
+        <v>123456789</v>
+      </c>
+      <c r="W32" s="4">
+        <v>123456789</v>
+      </c>
+      <c r="X32" s="4" t="e">
+        <f>IF(BDSocios[[#This Row],[ALUMNO2]]="",1,IF(BDSocios[[#This Row],[ALUMNO3]]="",2,IF(BDSocios[[#This Row],[ALUMNO 4]]="",3,4)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="6">
+        <v>41604</v>
+      </c>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7">
+        <v>43192</v>
+      </c>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="5"/>
+      <c r="AR32" s="5"/>
+      <c r="AS32" s="5"/>
+      <c r="AT32" s="5"/>
+      <c r="AU32" s="5"/>
+    </row>
+    <row r="33" spans="1:47">
+      <c r="A33" s="11">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>132</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11" t="e">
+        <f>IF(BDSocios[[#This Row],[ALUMNO2]]="",1,IF(BDSocios[[#This Row],[ALUMNO3]]="",2,IF(BDSocios[[#This Row],[ALUMNO 4]]="",3,4)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="13"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="13"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="10"/>
+      <c r="AO33" s="10"/>
+      <c r="AP33" s="10"/>
+      <c r="AQ33" s="10"/>
+      <c r="AR33" s="10"/>
+      <c r="AS33" s="10"/>
+      <c r="AT33" s="10"/>
+      <c r="AU33" s="10"/>
+    </row>
+    <row r="34" spans="1:47">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34" s="4">
+        <v>133</v>
+      </c>
+      <c r="F34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" t="s">
+        <v>62</v>
+      </c>
+      <c r="L34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:47">
+      <c r="B35">
+        <v>134</v>
+      </c>
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" t="s">
+        <v>65</v>
+      </c>
+      <c r="L35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:47">
+      <c r="B36">
+        <v>135</v>
+      </c>
+      <c r="F36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I36" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G5" r:id="rId1"/>
+    <hyperlink ref="G6" r:id="rId2"/>
+    <hyperlink ref="G10" r:id="rId3"/>
+    <hyperlink ref="G11" r:id="rId4"/>
+    <hyperlink ref="G15" r:id="rId5"/>
+    <hyperlink ref="G16" r:id="rId6"/>
+    <hyperlink ref="G20" r:id="rId7"/>
+    <hyperlink ref="G21" r:id="rId8"/>
+    <hyperlink ref="G25" r:id="rId9"/>
+    <hyperlink ref="G26" r:id="rId10"/>
+    <hyperlink ref="G30" r:id="rId11"/>
+    <hyperlink ref="G31" r:id="rId12"/>
+    <hyperlink ref="G35" r:id="rId13"/>
+    <hyperlink ref="G36" r:id="rId14"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>